--- a/5-10/5-10.xlsx
+++ b/5-10/5-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="11424" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,112 +132,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +152,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +240,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,54 +486,6 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +516,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -587,6 +563,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1283,7 +1283,7 @@
         <v>21.4</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E12" si="0">D4-C4</f>
+        <f t="shared" ref="E4:E13" si="0">D4-C4</f>
         <v>1.12</v>
       </c>
       <c r="F4" s="2">
@@ -1293,7 +1293,7 @@
         <v>22.6</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="1">(G4-F4)</f>
+        <f t="shared" ref="H4:H12" si="1">(G4-F4)</f>
         <v>1.2</v>
       </c>
       <c r="I4" s="2">
@@ -1303,15 +1303,15 @@
         <v>23.7</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K11" si="2">J4-I4</f>
+        <f t="shared" ref="K4:K12" si="2">J4-I4</f>
         <v>1.1</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L11" si="3">(K4+H4+E4)/3</f>
+        <f t="shared" ref="L4:L12" si="3">(K4+H4+E4)/3</f>
         <v>1.14</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M10" si="4">($L$12-L4)/$E$13*8*1000/3</f>
+        <f t="shared" ref="M4:M11" si="4">($L$12-L4)/$E$13*8*1000/3</f>
         <v>55.6154860361982</v>
       </c>
       <c r="N4" s="5">
@@ -1321,11 +1321,11 @@
         <v>0.065</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P10" si="5">(O4+N4)/2</f>
+        <f t="shared" ref="P4:P11" si="5">(O4+N4)/2</f>
         <v>0.065</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" ref="Q4:Q10" si="6">(P4*0.27351-0.01216)/3*1000</f>
+        <f t="shared" ref="Q4:Q11" si="6">(P4*0.27351-0.01216)/3*1000</f>
         <v>1.87271666666667</v>
       </c>
       <c r="R4" s="8">
@@ -1335,11 +1335,11 @@
         <v>0.087</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" ref="T4:T10" si="7">(S4+R4)/2</f>
+        <f t="shared" ref="T4:T11" si="7">(S4+R4)/2</f>
         <v>0.0875</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" ref="U4:U10" si="8">(108.1*T4-0.2735)/1</f>
+        <f t="shared" ref="U4:U11" si="8">(108.1*T4-0.2735)/1</f>
         <v>9.18525</v>
       </c>
       <c r="V4" s="2">
@@ -1787,7 +1787,7 @@
         <v>20.22</v>
       </c>
       <c r="E10" s="1">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>1.24</v>
       </c>
       <c r="F10" s="2">
@@ -1869,7 +1869,7 @@
         <v>12.7</v>
       </c>
       <c r="E11" s="1">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>1.1</v>
       </c>
       <c r="F11" s="2">
@@ -1879,7 +1879,7 @@
         <v>14.02</v>
       </c>
       <c r="H11">
-        <f>(G11-F11)</f>
+        <f t="shared" si="1"/>
         <v>1.32</v>
       </c>
       <c r="I11" s="2">
@@ -1889,15 +1889,15 @@
         <v>15.2</v>
       </c>
       <c r="K11">
-        <f>J11-I11</f>
+        <f t="shared" si="2"/>
         <v>1.18</v>
       </c>
       <c r="L11" s="2">
-        <f>(K11+H11+E11)/3</f>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="M11" s="2">
-        <f>($L$12-L11)/$E$13*8*1000/3</f>
+        <f t="shared" si="4"/>
         <v>38.355507611171</v>
       </c>
       <c r="N11" s="5">
@@ -1907,11 +1907,11 @@
         <v>0.19</v>
       </c>
       <c r="P11" s="5">
-        <f>(O11+N11)/2</f>
+        <f t="shared" si="5"/>
         <v>0.189</v>
       </c>
       <c r="Q11" s="6">
-        <f>(P11*0.27351-0.01216)/3*1000</f>
+        <f t="shared" si="6"/>
         <v>13.1777966666667</v>
       </c>
       <c r="R11" s="7">
@@ -1921,11 +1921,11 @@
         <v>0.012</v>
       </c>
       <c r="T11" s="7">
-        <f>(S11+R11)/2</f>
+        <f t="shared" si="7"/>
         <v>0.012</v>
       </c>
       <c r="U11" s="7">
-        <f>(108.1*T11-0.2735)/1</f>
+        <f t="shared" si="8"/>
         <v>1.0237</v>
       </c>
       <c r="V11" s="2">
@@ -1951,7 +1951,7 @@
         <v>16.55</v>
       </c>
       <c r="E12" s="1">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="F12" s="2">
@@ -1961,7 +1961,7 @@
         <v>17.86</v>
       </c>
       <c r="H12">
-        <f>(G12-F12)</f>
+        <f t="shared" si="1"/>
         <v>1.31</v>
       </c>
       <c r="I12" s="2">
@@ -1971,11 +1971,11 @@
         <v>19.2</v>
       </c>
       <c r="K12">
-        <f>J12-I12</f>
+        <f t="shared" si="2"/>
         <v>1.34</v>
       </c>
       <c r="L12" s="2">
-        <f>(K12+H12+E12)/3</f>
+        <f t="shared" si="3"/>
         <v>1.33333333333333</v>
       </c>
       <c r="M12" s="2"/>
@@ -2004,7 +2004,7 @@
         <v>17.99</v>
       </c>
       <c r="E13" s="1">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>9.27</v>
       </c>
       <c r="F13" s="2"/>
